--- a/zillow_data_dictionary.xlsx
+++ b/zillow_data_dictionary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/donq/codeup-data-science/010_regression_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B7EA5FC-327C-354A-BA5E-8B1F9FEEB62E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2394D055-E42B-5F4E-B800-557DC9FC3589}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20700" yWindow="3000" windowWidth="18360" windowHeight="17840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20040" yWindow="3000" windowWidth="18360" windowHeight="17840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Dictionary" sheetId="5" r:id="rId1"/>
@@ -1171,7 +1171,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <selection activeCell="A57" sqref="A57:B57"/>
     </sheetView>
   </sheetViews>
